--- a/biology/Médecine/BRAF_(gène)/BRAF_(gène).xlsx
+++ b/biology/Médecine/BRAF_(gène)/BRAF_(gène).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAF_(g%C3%A8ne)</t>
+          <t>BRAF_(gène)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BRAF est un gène humain situé sur le chromosome 7 et responsable de la production de la protéine B-Raf. Le gène est aussi appelé B-Raf proto-oncogène, tandis que la protéine est mieux connue sous le nom de protéine B-Raf sérine/thréonine kinase B-Raf[5],[6].
-La protéine B-Raf est impliquée dans l'envoi des signaux qui déterminent la croissance des cellules au sein de celles-ci. Elle est présente sous une forme mutée dans certains cancers touchant l'humain[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BRAF est un gène humain situé sur le chromosome 7 et responsable de la production de la protéine B-Raf. Le gène est aussi appelé B-Raf proto-oncogène, tandis que la protéine est mieux connue sous le nom de protéine B-Raf sérine/thréonine kinase B-Raf,.
+La protéine B-Raf est impliquée dans l'envoi des signaux qui déterminent la croissance des cellules au sein de celles-ci. Elle est présente sous une forme mutée dans certains cancers touchant l'humain.
 Certaines autres mutations de BRAF héréditaires provoquent des malformations congénitales.
-Des médicaments pour traiter les cancers causés par les mutations du gène BRAF ont été développés. La présence d'une mutation de BRAF dans une cellule cancéreuse rend en effet cette dernière totalement dépendante de BRAF pour sa survie, par le mécanisme d'addiction oncogénique. Deux de ces traitements, le vemurafenib[8] et le dabrafenib ont été approuvés par la FDA pour le traitement du mélanome au stade avancé.
+Des médicaments pour traiter les cancers causés par les mutations du gène BRAF ont été développés. La présence d'une mutation de BRAF dans une cellule cancéreuse rend en effet cette dernière totalement dépendante de BRAF pour sa survie, par le mécanisme d'addiction oncogénique. Deux de ces traitements, le vemurafenib et le dabrafenib ont été approuvés par la FDA pour le traitement du mélanome au stade avancé.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAF_(g%C3%A8ne)</t>
+          <t>BRAF_(gène)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « BRAF (gene) » (voir la liste des auteurs).
 ↑ a b et c GRCh38: Ensembl release 89: ENSG00000157764 - Ensembl, May 2017
